--- a/doc/refs/初始化数据/pn-update20180815.xlsx
+++ b/doc/refs/初始化数据/pn-update20180815.xlsx
@@ -614,7 +614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9">
-        <v>8750</v>
+        <v>245150</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
@@ -669,7 +669,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9">
-        <v>79600</v>
+        <v>267755</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
@@ -684,7 +684,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
-        <v>284020</v>
+        <v>1510020</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
@@ -699,7 +699,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9">
-        <v>1105360</v>
+        <v>2285967</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1">
@@ -714,7 +714,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>25200</v>
+        <v>783876</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1">
@@ -729,7 +729,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
-        <v>90010</v>
+        <v>97630</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
@@ -744,7 +744,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
-        <v>198700</v>
+        <v>202700</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1">
@@ -759,7 +759,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
-        <v>13640</v>
+        <v>29320</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12" customHeight="1">
@@ -774,7 +774,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>10960</v>
+        <v>24760</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" customHeight="1">
@@ -789,7 +789,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
-        <v>25960</v>
+        <v>71508</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" customHeight="1">
@@ -804,7 +804,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>21280</v>
+        <v>56050</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" customHeight="1">
@@ -819,7 +819,7 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
-        <v>705600</v>
+        <v>5277600</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1">
@@ -834,7 +834,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>264360</v>
+        <v>424800</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" customHeight="1">
@@ -909,7 +909,7 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
-        <v>249900</v>
+        <v>386400</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" customHeight="1">
@@ -924,7 +924,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>116000</v>
+        <v>315600</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" customHeight="1">
